--- a/grafico_bibliotecas.xlsx
+++ b/grafico_bibliotecas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katherine\Documents\Job\Mincul2022\Estadísticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27575A4-5F40-45D8-AFAC-D8BC820B2ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F2754-A330-4B51-A523-65D2FC1424CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>AMAZONAS</t>
   </si>
@@ -113,12 +113,21 @@
   </si>
   <si>
     <t>Num_bibliotecas</t>
+  </si>
+  <si>
+    <t>Poblacion_miles</t>
+  </si>
+  <si>
+    <t>Biblioteca_poblacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,10 +197,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,276 +500,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.1015625" customWidth="1"/>
     <col min="2" max="2" width="12.47265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>32</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="1">
+        <v>428.5</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2/B2</f>
+        <v>13.390625</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>75</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="1">
+        <v>1188.4000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D26" si="0">C3/B3</f>
+        <v>15.845333333333334</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>64</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="1">
+        <v>430.6</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7281250000000004</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>46</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="1">
+        <v>1526.7</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>33.189130434782612</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>104</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="1">
+        <v>670</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4423076923076925</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>65</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="1">
+        <v>1455.2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>22.387692307692308</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>61</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="1">
+        <v>1151.5</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>18.877049180327869</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>72</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="1">
+        <v>1369.9</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>19.026388888888889</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>27</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="1">
+        <v>358.4</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>13.274074074074074</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>36</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="1">
+        <v>758.4</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>21.066666666666666</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>45</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="1">
+        <v>998.1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>22.18</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>84</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="1">
+        <v>1369</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>16.297619047619047</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>83</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="1">
+        <v>2048.5</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>24.680722891566266</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>39</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="1">
+        <v>1325.9</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>33.997435897435899</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>664</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="1">
+        <v>21629</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>32.57379518072289</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>32</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="1">
+        <v>1037.0999999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>32.409374999999997</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>4</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="1">
+        <v>179.7</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>44.924999999999997</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="1">
+        <v>195.2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>13.942857142857141</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>45</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="1">
+        <v>270.8</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0177777777777779</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>107</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="1">
+        <v>2077</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>19.411214953271028</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>134</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="1">
+        <v>1233.3</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>9.2037313432835823</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="1">
+        <v>912.7</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>45.635000000000005</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>6</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="1">
+        <v>377.8</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>62.966666666666669</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>11</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="1">
+        <v>255.7</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>23.245454545454546</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>12</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="1">
+        <v>602.4</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>50.199999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C26" xr:uid="{00000000-0001-0000-0000-000000000000}">
